--- a/Documentation/Matlab/FuzzyLogicData.xlsx
+++ b/Documentation/Matlab/FuzzyLogicData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-Miscellaneous\Computer Games Programming\TD Offline\FuzzyLogic Engines\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-Miscellaneous\Computer Games Programming\Terrific-Disposition\Documentation\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17930" windowHeight="10050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17930" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WorldContextEngine" sheetId="2" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Behaviour</t>
   </si>
   <si>
-    <t>Player Aggression</t>
-  </si>
-  <si>
     <t>Playstyle</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Tile Classification</t>
+  </si>
+  <si>
+    <t>Player Hostility</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E47"/>
     </sheetView>
   </sheetViews>
@@ -471,13 +471,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -494,10 +494,10 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>45</v>
@@ -518,10 +518,10 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>45</v>
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -566,10 +566,10 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>75</v>
@@ -614,10 +614,10 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>45</v>
@@ -638,10 +638,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>45</v>
@@ -662,10 +662,10 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -686,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -710,10 +710,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>75</v>
@@ -734,10 +734,10 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>45</v>
@@ -758,10 +758,10 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>45</v>
@@ -782,10 +782,10 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -806,10 +806,10 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="C16">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -830,10 +830,10 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C17">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D17">
         <v>75</v>
@@ -854,10 +854,10 @@
         <v>45</v>
       </c>
       <c r="B18">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>45</v>
@@ -878,10 +878,10 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>15</v>
@@ -902,10 +902,10 @@
         <v>45</v>
       </c>
       <c r="B20">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -926,10 +926,10 @@
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -950,10 +950,10 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D22">
         <v>75</v>
@@ -974,10 +974,10 @@
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>45</v>
@@ -998,10 +998,10 @@
         <v>45</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -1022,10 +1022,10 @@
         <v>55</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -1046,10 +1046,10 @@
         <v>45</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D26">
         <v>75</v>
@@ -1070,10 +1070,10 @@
         <v>55</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>75</v>
@@ -1094,10 +1094,10 @@
         <v>45</v>
       </c>
       <c r="B28">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>45</v>
@@ -1118,10 +1118,10 @@
         <v>55</v>
       </c>
       <c r="B29">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -1142,10 +1142,10 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -1166,10 +1166,10 @@
         <v>55</v>
       </c>
       <c r="B31">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="C31">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>75</v>
@@ -1190,10 +1190,10 @@
         <v>45</v>
       </c>
       <c r="B32">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C32">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>75</v>
@@ -1214,10 +1214,10 @@
         <v>80</v>
       </c>
       <c r="B33">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>45</v>
@@ -1238,10 +1238,10 @@
         <v>90</v>
       </c>
       <c r="B34">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>45</v>
@@ -1262,10 +1262,10 @@
         <v>80</v>
       </c>
       <c r="B35">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -1286,10 +1286,10 @@
         <v>90</v>
       </c>
       <c r="B36">
-        <v>0.15</v>
+        <v>15</v>
       </c>
       <c r="C36">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D36">
         <v>15</v>
@@ -1310,10 +1310,10 @@
         <v>80</v>
       </c>
       <c r="B37">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D37">
         <v>75</v>
@@ -1334,10 +1334,10 @@
         <v>90</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>45</v>
@@ -1358,10 +1358,10 @@
         <v>80</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D39">
         <v>45</v>
@@ -1382,10 +1382,10 @@
         <v>90</v>
       </c>
       <c r="B40">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>15</v>
@@ -1406,10 +1406,10 @@
         <v>80</v>
       </c>
       <c r="B41">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D41">
         <v>15</v>
@@ -1430,10 +1430,10 @@
         <v>90</v>
       </c>
       <c r="B42">
-        <v>0.4</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D42">
         <v>75</v>
@@ -1454,10 +1454,10 @@
         <v>80</v>
       </c>
       <c r="B43">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>45</v>
@@ -1478,10 +1478,10 @@
         <v>90</v>
       </c>
       <c r="B44">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D44">
         <v>45</v>
@@ -1502,10 +1502,10 @@
         <v>80</v>
       </c>
       <c r="B45">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -1526,10 +1526,10 @@
         <v>90</v>
       </c>
       <c r="B46">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D46">
         <v>15</v>
@@ -1550,10 +1550,10 @@
         <v>80</v>
       </c>
       <c r="B47">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="C47">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D47">
         <v>75</v>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1657,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1681,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1705,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1729,7 +1729,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1753,7 +1753,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1777,7 +1777,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1801,7 +1801,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1825,7 +1825,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1849,7 +1849,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1873,7 +1873,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1921,7 +1921,7 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1945,7 +1945,7 @@
         <v>45</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1969,7 +1969,7 @@
         <v>45</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>45</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2017,7 +2017,7 @@
         <v>45</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -2041,7 +2041,7 @@
         <v>45</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2065,7 +2065,7 @@
         <v>45</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -2089,7 +2089,7 @@
         <v>45</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -2113,7 +2113,7 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2137,7 +2137,7 @@
         <v>75</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -2161,7 +2161,7 @@
         <v>75</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -2185,7 +2185,7 @@
         <v>75</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2209,7 +2209,7 @@
         <v>75</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2233,7 +2233,7 @@
         <v>75</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2257,7 +2257,7 @@
         <v>75</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -2281,7 +2281,7 @@
         <v>75</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -2305,7 +2305,7 @@
         <v>75</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -2329,7 +2329,7 @@
         <v>75</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -2353,7 +2353,7 @@
         <v>75</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C32">
         <v>8</v>
